--- a/lci-Salar-de-Olaroz.xlsx
+++ b/lci-Salar-de-Olaroz.xlsx
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -1004,7 +1004,7 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
         <v>25</v>
@@ -3034,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F220" t="s">
         <v>25</v>
@@ -3200,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -3349,7 +3349,7 @@
         <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
